--- a/REGULAR/OJT/LAGUARDIA, JOSELITO.xlsx
+++ b/REGULAR/OJT/LAGUARDIA, JOSELITO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
   <si>
     <t>PERIOD</t>
   </si>
@@ -567,12 +567,34 @@
   </si>
   <si>
     <t>12/28,29/2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>GRADUATION 10/6/2023</t>
+  </si>
+  <si>
+    <t>BIRTHDAY 10/18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -803,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,6 +991,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,7 +1484,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1527,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1591,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1651,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1717,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1780,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1878,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1937,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2002,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2045,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2120,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2306,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2372,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2430,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2496,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2552,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2627,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2670,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2736,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2792,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2890,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2953,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +3019,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K408" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K424" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3369,12 +3397,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K408"/>
+  <dimension ref="A2:K424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A177" activePane="bottomLeft"/>
-      <selection activeCell="N4" sqref="N4:N5"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A402" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="K420" sqref="K420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,58 +3424,58 @@
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="24"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3473,18 +3501,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3531,7 +3559,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>287.60199999999998</v>
+        <v>298.85199999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3541,7 +3569,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>379.75</v>
+        <v>391</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3892,7 +3920,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="69">
+      <c r="K26" s="57">
         <v>35230</v>
       </c>
     </row>
@@ -3914,7 +3942,7 @@
       <c r="H27" s="37"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="69"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -4050,7 +4078,7 @@
       <c r="H33" s="37"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="69">
+      <c r="K33" s="57">
         <v>35416</v>
       </c>
     </row>
@@ -4072,7 +4100,7 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="69">
+      <c r="K34" s="57">
         <v>35426</v>
       </c>
     </row>
@@ -4160,7 +4188,7 @@
       <c r="H38" s="37"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="69">
+      <c r="K38" s="57">
         <v>35781</v>
       </c>
     </row>
@@ -4180,7 +4208,7 @@
       <c r="H39" s="37"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="69">
+      <c r="K39" s="57">
         <v>35786</v>
       </c>
     </row>
@@ -4654,7 +4682,7 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="69">
+      <c r="K62" s="57">
         <v>36140</v>
       </c>
     </row>
@@ -4761,7 +4789,7 @@
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="69">
+      <c r="K67" s="57">
         <v>36217</v>
       </c>
     </row>
@@ -4849,7 +4877,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="69">
+      <c r="K71" s="57">
         <v>36319</v>
       </c>
     </row>
@@ -4915,7 +4943,7 @@
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="69">
+      <c r="K74" s="57">
         <v>36347</v>
       </c>
     </row>
@@ -4978,7 +5006,7 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="69">
+      <c r="K77" s="57">
         <v>36438</v>
       </c>
     </row>
@@ -5028,7 +5056,7 @@
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="69">
+      <c r="K79" s="57">
         <v>36482</v>
       </c>
     </row>
@@ -5155,7 +5183,7 @@
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="69">
+      <c r="K85" s="57">
         <v>36531</v>
       </c>
     </row>
@@ -5654,7 +5682,7 @@
       <c r="H108" s="37"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="69">
+      <c r="K108" s="57">
         <v>37182</v>
       </c>
     </row>
@@ -5680,7 +5708,7 @@
       <c r="H109" s="37"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="69">
+      <c r="K109" s="57">
         <v>37209</v>
       </c>
     </row>
@@ -5702,7 +5730,7 @@
       <c r="H110" s="37"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="69">
+      <c r="K110" s="57">
         <v>37243</v>
       </c>
     </row>
@@ -5916,7 +5944,7 @@
       <c r="H120" s="37"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="69">
+      <c r="K120" s="57">
         <v>37547</v>
       </c>
     </row>
@@ -6164,7 +6192,7 @@
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="69">
+      <c r="K132" s="57">
         <v>37816</v>
       </c>
     </row>
@@ -6186,7 +6214,7 @@
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="69">
+      <c r="K133" s="57">
         <v>37819</v>
       </c>
     </row>
@@ -6696,7 +6724,7 @@
       <c r="H157" s="37"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="69">
+      <c r="K157" s="57">
         <v>38385</v>
       </c>
     </row>
@@ -6968,7 +6996,7 @@
       <c r="H169" s="37"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="69">
+      <c r="K169" s="57">
         <v>38694</v>
       </c>
     </row>
@@ -6994,7 +7022,7 @@
       <c r="H170" s="37"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="69">
+      <c r="K170" s="57">
         <v>38701</v>
       </c>
     </row>
@@ -7135,7 +7163,7 @@
       <c r="D177" s="37"/>
       <c r="E177" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>287.60199999999998</v>
+        <v>298.85199999999998</v>
       </c>
       <c r="F177" s="20"/>
       <c r="G177" s="13" t="str">
@@ -7145,7 +7173,7 @@
       <c r="H177" s="37"/>
       <c r="I177" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>379.75</v>
+        <v>391</v>
       </c>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
@@ -7296,7 +7324,7 @@
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="69">
+      <c r="K184" s="57">
         <v>39028</v>
       </c>
     </row>
@@ -7578,7 +7606,7 @@
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="69">
+      <c r="K197" s="57">
         <v>39373</v>
       </c>
     </row>
@@ -7600,7 +7628,7 @@
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="69">
+      <c r="K198" s="57">
         <v>39392</v>
       </c>
     </row>
@@ -7758,7 +7786,7 @@
       <c r="H205" s="37"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="69">
+      <c r="K205" s="57">
         <v>39518</v>
       </c>
     </row>
@@ -7780,7 +7808,7 @@
       <c r="H206" s="37"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="69">
+      <c r="K206" s="57">
         <v>39526</v>
       </c>
     </row>
@@ -7826,7 +7854,7 @@
       </c>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="69">
+      <c r="K208" s="57">
         <v>39576</v>
       </c>
     </row>
@@ -7852,7 +7880,7 @@
       </c>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="69">
+      <c r="K209" s="57">
         <v>39615</v>
       </c>
     </row>
@@ -7938,7 +7966,7 @@
       <c r="H213" s="37"/>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="69">
+      <c r="K213" s="57">
         <v>39738</v>
       </c>
     </row>
@@ -7957,7 +7985,7 @@
       </c>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="69">
+      <c r="K214" s="57">
         <v>39752</v>
       </c>
     </row>
@@ -8139,7 +8167,7 @@
       </c>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="69">
+      <c r="K222" s="57">
         <v>39945</v>
       </c>
     </row>
@@ -8225,7 +8253,7 @@
       </c>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="69">
+      <c r="K226" s="57">
         <v>40057</v>
       </c>
     </row>
@@ -8807,7 +8835,7 @@
       </c>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="69">
+      <c r="K253" s="57">
         <v>40792</v>
       </c>
     </row>
@@ -8833,7 +8861,7 @@
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="69">
+      <c r="K254" s="57">
         <v>40834</v>
       </c>
     </row>
@@ -8859,7 +8887,7 @@
       <c r="H255" s="37"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="69">
+      <c r="K255" s="57">
         <v>40862</v>
       </c>
     </row>
@@ -9025,7 +9053,7 @@
       <c r="H262" s="37"/>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
-      <c r="K262" s="69">
+      <c r="K262" s="57">
         <v>41054</v>
       </c>
     </row>
@@ -9111,7 +9139,7 @@
       <c r="H266" s="37"/>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="69">
+      <c r="K266" s="57">
         <v>41162</v>
       </c>
     </row>
@@ -9159,7 +9187,7 @@
       </c>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="69">
+      <c r="K268" s="57">
         <v>41213</v>
       </c>
     </row>
@@ -9185,7 +9213,7 @@
       </c>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
-      <c r="K269" s="69">
+      <c r="K269" s="57">
         <v>41240</v>
       </c>
     </row>
@@ -9433,7 +9461,7 @@
       <c r="H281" s="37"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="69" t="s">
+      <c r="K281" s="57" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9457,7 +9485,7 @@
       <c r="H282" s="37"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="69">
+      <c r="K282" s="57">
         <v>41578</v>
       </c>
     </row>
@@ -10069,7 +10097,7 @@
       <c r="H311" s="37"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="69">
+      <c r="K311" s="57">
         <v>42332</v>
       </c>
     </row>
@@ -11125,7 +11153,7 @@
       <c r="H361" s="37"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="69">
+      <c r="K361" s="57">
         <v>43636</v>
       </c>
     </row>
@@ -11211,7 +11239,7 @@
       </c>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="69">
+      <c r="K365" s="57">
         <v>43742</v>
       </c>
     </row>
@@ -11979,7 +12007,7 @@
       <c r="H402" s="37"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="69">
+      <c r="K402" s="57">
         <v>44718</v>
       </c>
     </row>
@@ -12102,6 +12130,318 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B409" s="15"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="40"/>
+      <c r="E409" s="58"/>
+      <c r="F409" s="15"/>
+      <c r="G409" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="40"/>
+      <c r="I409" s="58"/>
+      <c r="J409" s="12"/>
+      <c r="K409" s="15"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="59">
+        <v>44927</v>
+      </c>
+      <c r="B410" s="15"/>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D410" s="40"/>
+      <c r="E410" s="58"/>
+      <c r="F410" s="15"/>
+      <c r="G410" s="39">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H410" s="40"/>
+      <c r="I410" s="58"/>
+      <c r="J410" s="12"/>
+      <c r="K410" s="15"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="59">
+        <v>44958</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D411" s="37"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H411" s="37"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="59">
+        <v>44986</v>
+      </c>
+      <c r="B412" s="20"/>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D412" s="37"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H412" s="37"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="59">
+        <v>45017</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D413" s="37"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H413" s="37"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="59">
+        <v>45047</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D414" s="37"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="37"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="59">
+        <v>45078</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D415" s="37"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H415" s="37"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="59">
+        <v>45108</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D416" s="37"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H416" s="37"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="59">
+        <v>45139</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="37"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="37"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="59">
+        <v>45170</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="37"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="37"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="59">
+        <v>45200</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C419" s="13"/>
+      <c r="D419" s="37"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="37"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="38"/>
+      <c r="B420" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C420" s="13"/>
+      <c r="D420" s="37"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="37"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="59">
+        <v>45231</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="37"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="37"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="59">
+        <v>45261</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="37"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="37"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="37"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="37"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="59">
+        <v>45292</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="37"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="37"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12167,17 +12507,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -12254,12 +12594,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
